--- a/TableMetadata/Metadata_Oracle_hr.xlsx
+++ b/TableMetadata/Metadata_Oracle_hr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bibhu\Workspace1\ETLAutomationProject2\TableMetadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bibhu\etl-test-automation\TableMetadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49998B9-A6E0-4C32-B789-6353D3FFABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A81C2AD-2594-47E8-A279-14B7C7585569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1524" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{329CFC19-3AC1-4FDD-9D4F-5E2ED556CDD9}"/>
+    <workbookView xWindow="2520" yWindow="1524" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{329CFC19-3AC1-4FDD-9D4F-5E2ED556CDD9}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>ENAME</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>EMPNO</t>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(9) </t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NUMBER(7,2)</t>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER(2) </t>
+  </si>
+  <si>
+    <t>VARCHAR2(14)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
   </si>
 </sst>
 </file>
@@ -470,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFDE1AC-0A85-43BB-9147-181A7311A598}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,8 +526,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>22</v>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,8 +537,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,8 +548,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>9</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -532,8 +559,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,6 +570,9 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -551,8 +581,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>22</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -562,8 +592,8 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>22</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -573,8 +603,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>22</v>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -586,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B58E71-D688-47EF-9D54-53C5434EC574}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,8 +645,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>22</v>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,8 +656,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>14</v>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,8 +667,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
